--- a/ust/python/exports/mapping/AZ/AZ_UST_mapping_20240723233603.xlsx
+++ b/ust/python/exports/mapping/AZ/AZ_UST_mapping_20240723233603.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\erguser\repos\ERG\UST\ust\python\exports\mapping\AZ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A6CF349-614E-468D-B60A-FF1B92587FFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87E45185-9732-4584-AB6D-FB539D1395F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="209">
   <si>
     <t>owner_type</t>
   </si>
@@ -702,10 +702,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2079,8 +2080,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:N51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2146,9 +2147,7 @@
       <c r="E2" t="s">
         <v>117</v>
       </c>
-      <c r="F2" t="s">
-        <v>190</v>
-      </c>
+      <c r="F2" s="2"/>
       <c r="N2">
         <v>526</v>
       </c>
@@ -2166,9 +2165,7 @@
       <c r="E3" t="s">
         <v>119</v>
       </c>
-      <c r="F3" t="s">
-        <v>188</v>
-      </c>
+      <c r="F3" s="2"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -2200,12 +2197,7 @@
       <c r="E5" t="s">
         <v>123</v>
       </c>
-      <c r="F5" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="G5" t="s">
-        <v>208</v>
-      </c>
+      <c r="F5" s="2"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -2220,9 +2212,7 @@
       <c r="E6" t="s">
         <v>125</v>
       </c>
-      <c r="F6" t="s">
-        <v>149</v>
-      </c>
+      <c r="F6" s="2"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -2237,9 +2227,7 @@
       <c r="E7" t="s">
         <v>127</v>
       </c>
-      <c r="F7" t="s">
-        <v>149</v>
-      </c>
+      <c r="F7" s="2"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -2254,9 +2242,7 @@
       <c r="E8" t="s">
         <v>129</v>
       </c>
-      <c r="F8" t="s">
-        <v>153</v>
-      </c>
+      <c r="F8" s="2"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -2271,9 +2257,7 @@
       <c r="E9" t="s">
         <v>132</v>
       </c>
-      <c r="F9" t="s">
-        <v>167</v>
-      </c>
+      <c r="F9" s="2"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -2288,12 +2272,7 @@
       <c r="E10" t="s">
         <v>134</v>
       </c>
-      <c r="F10" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="G10" t="s">
-        <v>208</v>
-      </c>
+      <c r="F10" s="2"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -2308,9 +2287,7 @@
       <c r="E11" t="s">
         <v>136</v>
       </c>
-      <c r="F11" t="s">
-        <v>160</v>
-      </c>
+      <c r="F11" s="2"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -2325,9 +2302,7 @@
       <c r="E12" t="s">
         <v>138</v>
       </c>
-      <c r="F12" t="s">
-        <v>197</v>
-      </c>
+      <c r="F12" s="2"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -2342,9 +2317,7 @@
       <c r="E13" t="s">
         <v>140</v>
       </c>
-      <c r="F13" t="s">
-        <v>164</v>
-      </c>
+      <c r="F13" s="2"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -2359,9 +2332,7 @@
       <c r="E14" t="s">
         <v>142</v>
       </c>
-      <c r="F14" t="s">
-        <v>162</v>
-      </c>
+      <c r="F14" s="2"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -2376,9 +2347,7 @@
       <c r="E15" t="s">
         <v>144</v>
       </c>
-      <c r="F15" t="s">
-        <v>162</v>
-      </c>
+      <c r="F15" s="2"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -2397,7 +2366,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>125</v>
       </c>
@@ -2410,11 +2379,9 @@
       <c r="E17" t="s">
         <v>148</v>
       </c>
-      <c r="F17" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F17" s="2"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>125</v>
       </c>
@@ -2427,11 +2394,9 @@
       <c r="E18" t="s">
         <v>150</v>
       </c>
-      <c r="F18" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F18" s="2"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>125</v>
       </c>
@@ -2444,11 +2409,9 @@
       <c r="E19" t="s">
         <v>152</v>
       </c>
-      <c r="F19" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F19" s="2"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>125</v>
       </c>
@@ -2461,11 +2424,9 @@
       <c r="E20" t="s">
         <v>154</v>
       </c>
-      <c r="F20" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F20" s="2"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>125</v>
       </c>
@@ -2482,7 +2443,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>125</v>
       </c>
@@ -2495,11 +2456,9 @@
       <c r="E22" t="s">
         <v>158</v>
       </c>
-      <c r="F22" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F22" s="2"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>159</v>
       </c>
@@ -2512,11 +2471,9 @@
       <c r="E23" t="s">
         <v>161</v>
       </c>
-      <c r="F23" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F23" s="2"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>159</v>
       </c>
@@ -2529,11 +2486,9 @@
       <c r="E24" t="s">
         <v>163</v>
       </c>
-      <c r="F24" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F24" s="2"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>159</v>
       </c>
@@ -2546,11 +2501,9 @@
       <c r="E25" t="s">
         <v>16</v>
       </c>
-      <c r="F25" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F25" s="2"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>159</v>
       </c>
@@ -2563,11 +2516,9 @@
       <c r="E26" t="s">
         <v>166</v>
       </c>
-      <c r="F26" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F26" s="2"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>159</v>
       </c>
@@ -2580,14 +2531,9 @@
       <c r="E27" t="s">
         <v>168</v>
       </c>
-      <c r="F27" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="G27" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F27" s="2"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>159</v>
       </c>
@@ -2600,11 +2546,9 @@
       <c r="E28" t="s">
         <v>170</v>
       </c>
-      <c r="F28" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F28" s="2"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>159</v>
       </c>
@@ -2617,11 +2561,9 @@
       <c r="E29" t="s">
         <v>172</v>
       </c>
-      <c r="F29" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F29" s="2"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>159</v>
       </c>
@@ -2634,11 +2576,11 @@
       <c r="E30" t="s">
         <v>174</v>
       </c>
-      <c r="F30" t="s">
+      <c r="F30" s="3" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>159</v>
       </c>
@@ -2651,11 +2593,9 @@
       <c r="E31" t="s">
         <v>176</v>
       </c>
-      <c r="F31" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F31" s="2"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>177</v>
       </c>
@@ -2668,9 +2608,7 @@
       <c r="E32" t="s">
         <v>179</v>
       </c>
-      <c r="F32" t="s">
-        <v>162</v>
-      </c>
+      <c r="F32" s="2"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
@@ -2685,9 +2623,7 @@
       <c r="E33" t="s">
         <v>181</v>
       </c>
-      <c r="F33" t="s">
-        <v>189</v>
-      </c>
+      <c r="F33" s="2"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
